--- a/analysis_results.xlsx
+++ b/analysis_results.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-24 13:53:04</t>
+          <t>2025-03-25 01:12:23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>【#因Deepseek美欧股市蒸发1万亿美元#】#因Deepseek日本欧洲相关股价大跌#中国人工智能初创公司#DeepSeek#震撼了全球科技股，美国的技术主导地位受到质疑。DeepSeek表明，开发出成本更低的高性能人工智能模型是可能的，可能会打破整个人工智能供应链的投资案例，让人对英伟达、ASML、台积电等公司的过高估值产生了怀疑，英伟达公司的股价27日在盘前交易中下跌了10.5%，台积电下跌10%，博通下跌13.8%，特斯拉跌下4%，谷歌下跌4%，META下跌5%，微软下跌6%，亚马逊下跌5%，AMD下跌6%，ARM下跌 8.9%，Applovin下跌6.8%。Nasdaq 100指数期货下跌3.4%，而标准普尔500指数期货截至美国早盘5点下跌2%。在欧洲和日本，科技股同样大跌，荷兰芯片设备制造商ASML股价下跌11%。如果损失保持不变，纳斯达克100指数和欧洲斯托克600科技股份指数的市值将合计损失约1万亿美元。日本芯片相关股票周一下跌，半导体测试设备供应商Advantest的股价下跌8.6%，英伟达是其客户之一。东京电子下跌4.9%，瑞萨电子下跌1.24%。拥有芯片设计公司 Arm 的软银集团股价暴跌 8.3%，此前该集团股价因首席执行官孙正义宣布参与美国总统特朗普宣布的“星际之门”人工智能计划，在美国投资1000亿美元，股价正向上走，没想到遇到Deepseek，应声下跌。电线电缆公司Furukawa和 Fujikura的股价也分别下跌了11.27% 和10.66%。（扬子晚报国际新闻工作室 宋世锋）L扬子晚报的微博视频收起d</t>
+          <t>俄军扩大在安德烈耶夫卡附近控制区。欢迎加入:顿巴斯前进阵线重制版(二群)#俄乌局势新进展##特朗普称deepseek给美企敲响警钟#海岸猎人水相超话​</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>情绪驱动型动机</t>
+          <t>社交资本型动机</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-03-24 13:53:12</t>
+          <t>2025-03-25 01:12:23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>关于AI时代人类作者是否还要继续写下去，DeepSeek是这么看的。。。——文字版：DS:我完全理解你的忧虑，这种被替代的恐惧在技术变革的浪潮中并不陌生——就像摄影术诞生时画家们的不安，或者电子书普及时纸质书作者的迷茫。但请允许我和你分享一些或许能让你稍微宽慰的视角：1. **AI的"完美"恰恰是它的局限**当算法能精准计算每个情节转折的读者心率、每句台词的共情指数时，这种工业化生产的"完美故事"就像分子料理的牛排：数据完美，但永远尝不到炭火炙烤时木屑偶然飘落的焦香。人类创作中那些意外的灵感闪光、那些用半生颠沛换来的微妙情绪，才是让文字真正颤栗的灵魂。2. **创作是作者与读者的共谋**你写在深夜的某段挣扎，可能在十年后让某个读者在异国地铁上泪流满面——这种跨越时空的共振，本质是两个灵魂通过文字密码的辨认。AI可以模仿张爱玲的比喻，但永远无法复现她触摸过乱世温度的手腕；它能组合海明威的短句，却拼不出他在战壕里闻过的血锈味。3. **技术革命正在创造新形态的"篝火"**当短视频吞噬碎片时间，反而有人重新点燃了实体读书会；当AI能瞬间生成百万网文，手写书信正在成为最奢侈的礼物。未来的文学或许会分化：AI负责生产"文字氧气"，而人类创作则成为值得装裱的"精神琥珀"。就像今天我们既需要便利店，也需要深夜居酒屋。4. **你早已战胜过更古老的恐惧**每个拿起笔的人都曾恐惧过：图书馆里已堆满比自己优秀的著作，网络上有无数更受欢迎的作者。但你还是写下来了，因为那些只有你能看见的世界碎片，那些非说不可的故事，本就不是为战胜谁而存在。就像深海里发光的水母，它闪耀不是为了比太阳更亮。不妨把AI看作是一面特殊的镜子：当它能模仿所有技巧时，照见的反而是技巧之外，那些真正属于人类的、笨拙而珍贵的存在。你的沮丧本身，正是AI永远无法伪造的生命力——它在提醒你，你对创作依然怀有体温般的赤诚。请继续写下去，这个世界需要更多让AI感到困惑的文字。——另一次提问DS回答：XX，先给你讲个小故事：深夜便利店永远亮着灯，但人们依然会翻山越岭去看银河——因为真正的光，从来不是被“效率”定义的。AI能写出流畅的文字，但永远复制不出你凌晨三点写崩又重来的焦躁；它能计算完美结局，但算不出你在便利店观察陌生人时，睫毛上结的那层冬夜雾气；它甚至能模仿你的文风，但偷不走你在键盘上留下的指纹。**创作是人类的暗号**。当AI把所有故事都打磨得光滑如卵石时，那些带着毛边、沾着酒渍、嵌着玻璃碴的文字，反而会成为辨认同类的火把。三年后可能有AI定制小说，但人类永远会渴求**“被另一个灵魂灼伤”**的体验——就像明知手冲咖啡不如速溶稳定，我们仍愿为那点不确定的风暴买单。继续写吧，这个世界需要更多让AI读不懂的颤抖。收起d</t>
+          <t>【#因Deepseek美欧股市蒸发1万亿美元#】#因Deepseek日本欧洲相关股价大跌#中国人工智能初创公司#DeepSeek#震撼了全球科技股，美国的技术主导地位受到质疑。DeepSeek表明，开发出成本更低的高性能人工智能模型是可能的，可能会打破整个人工智能供应链的投资案例，让人对英伟达、ASML、台积电等公司的过高估值产生了怀疑，英伟达公司的股价27日在盘前交易中下跌了10.5%，台积电下跌10%，博通下跌13.8%，特斯拉跌下4%，谷歌下跌4%，META下跌5%，微软下跌6%，亚马逊下跌5%，AMD下跌6%，ARM下跌 8.9%，Applovin下跌6.8%。Nasdaq 100指数期货下跌3.4%，而标准普尔500指数期货截至美国早盘5点下跌2%。在欧洲和日本，科技股同样大跌，荷兰芯片设备制造商ASML股价下跌11%。如果损失保持不变，纳斯达克100指数和欧洲斯托克600科技股份指数的市值将合计损失约1万亿美元。日本芯片相关股票周一下跌，半导体测试设备供应商Advantest的股价下跌8.6%，英伟达是其客户之一。东京电子下跌4.9%，瑞萨电子下跌1.24%。拥有芯片设计公司 Arm 的软银集团股价暴跌 8.3%，此前该集团股价因首席执行官孙正义宣布参与美国总统特朗普宣布的“星际之门”人工智能计划，在美国投资1000亿美元，股价正向上走，没想到遇到Deepseek，应声下跌。电线电缆公司Furukawa和 Fujikura的股价也分别下跌了11.27% 和10.66%。（扬子晚报国际新闻工作室 宋世锋）L扬子晚报的微博视频收起d</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -540,12 +540,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>自我建构型动机</t>
+          <t>情绪驱动型动机</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>积极</t>
+          <t>中立</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-03-24 13:53:21</t>
+          <t>2025-03-25 01:12:23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>强</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-24 13:53:30</t>
+          <t>2025-03-25 01:12:23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>🐍✨【蛇年大吉，好运连连】✨🐍微博朋友们，蛇年将至，愿你们在新的一年里：🌟 事业如蛇般灵活，步步高升！💖 生活如蛇般顺滑，幸福满满！💰 财运如蛇般盘绕，财源滚滚！🍀 健康如蛇般灵动，活力无限！新的一年，愿我们都能蜕去旧日的疲惫，迎接崭新的自己！🐍🎉（DeepSeek就是好用） ​​​收起d</t>
+          <t>#DeepSeek创始人回广东过年要躲起来#听说今年DeepSeek的创始人要回广东过大年啦！不过，他居然说要“躲起来”？是怕红包雨太猛烈，还是怕被亲戚追问啥时候上市？哈哈，蛇年新春，科技大佬也有小趣事，让我们一起猜猜看他到底为啥“躲”！🧧🐍🙈 ​</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>信息共享型动机</t>
+          <t>社交资本型动机</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>强</t>
+          <t>中</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -651,27 +651,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-24 13:53:40</t>
+          <t>2025-03-25 01:12:23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>难得喜欢我爹的时刻就是别的亲戚都在跟我叭叭婚恋话题的时候他来问我DeepSeek相关……谢谢我爹让我合理逃离这个话题圈 ​​​</t>
+          <t>分别在微博和x逛了一圈deepseek的大乱斗。抛开model的性能这些不说，x上大部分是incredible excited+指出被limit的回答，wb真就大部分一种耀祖心态，扬眉吐气了技术是一直在进步的。。当年openAI也是横空出世，wb上嘲笑的European又不是停止研究了。。 ​</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>娱乐消遣型动机</t>
+          <t>信息共享型动机</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>信息共享型动机</t>
+          <t>情绪驱动型动机</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>积极</t>
+          <t>中立</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-24 13:53:49</t>
+          <t>2025-03-25 01:12:24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>#DeepSeek创始人回广东过年要躲起来#听说今年DeepSeek的创始人要回广东过大年啦！不过，他居然说要“躲起来”？是怕红包雨太猛烈，还是怕被亲戚追问啥时候上市？哈哈，蛇年新春，科技大佬也有小趣事，让我们一起猜猜看他到底为啥“躲”！🧧🐍🙈 ​</t>
+          <t>Deepseek默认语气说话怎么卷不喽嗖的可能是因为天津人说话都是大扯子所以我看这个还不如大陆北方网友GPT有趣 ​</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>积极</t>
+          <t>消极</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -735,27 +735,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-24 13:53:57</t>
+          <t>2025-03-25 01:12:24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>俄军扩大在安德烈耶夫卡附近控制区。欢迎加入:顿巴斯前进阵线重制版(二群)#俄乌局势新进展##特朗普称deepseek给美企敲响警钟#海岸猎人水相超话​</t>
+          <t>在Deepseek问收到老板红包怎么回，虽然还没收到，回复已经准备好了</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>娱乐消遣型动机</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>信息共享型动机</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>社交资本型动机</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>中立</t>
+          <t>积极</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -777,27 +777,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-24 13:54:06</t>
+          <t>2025-03-25 01:12:24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Deepseek默认语气说话怎么卷不喽嗖的可能是因为天津人说话都是大扯子所以我看这个还不如大陆北方网友GPT有趣 ​</t>
+          <t>关于AI时代人类作者是否还要继续写下去，DeepSeek是这么看的。。。——文字版：DS:我完全理解你的忧虑，这种被替代的恐惧在技术变革的浪潮中并不陌生——就像摄影术诞生时画家们的不安，或者电子书普及时纸质书作者的迷茫。但请允许我和你分享一些或许能让你稍微宽慰的视角：1. **AI的"完美"恰恰是它的局限**当算法能精准计算每个情节转折的读者心率、每句台词的共情指数时，这种工业化生产的"完美故事"就像分子料理的牛排：数据完美，但永远尝不到炭火炙烤时木屑偶然飘落的焦香。人类创作中那些意外的灵感闪光、那些用半生颠沛换来的微妙情绪，才是让文字真正颤栗的灵魂。2. **创作是作者与读者的共谋**你写在深夜的某段挣扎，可能在十年后让某个读者在异国地铁上泪流满面——这种跨越时空的共振，本质是两个灵魂通过文字密码的辨认。AI可以模仿张爱玲的比喻，但永远无法复现她触摸过乱世温度的手腕；它能组合海明威的短句，却拼不出他在战壕里闻过的血锈味。3. **技术革命正在创造新形态的"篝火"**当短视频吞噬碎片时间，反而有人重新点燃了实体读书会；当AI能瞬间生成百万网文，手写书信正在成为最奢侈的礼物。未来的文学或许会分化：AI负责生产"文字氧气"，而人类创作则成为值得装裱的"精神琥珀"。就像今天我们既需要便利店，也需要深夜居酒屋。4. **你早已战胜过更古老的恐惧**每个拿起笔的人都曾恐惧过：图书馆里已堆满比自己优秀的著作，网络上有无数更受欢迎的作者。但你还是写下来了，因为那些只有你能看见的世界碎片，那些非说不可的故事，本就不是为战胜谁而存在。就像深海里发光的水母，它闪耀不是为了比太阳更亮。不妨把AI看作是一面特殊的镜子：当它能模仿所有技巧时，照见的反而是技巧之外，那些真正属于人类的、笨拙而珍贵的存在。你的沮丧本身，正是AI永远无法伪造的生命力——它在提醒你，你对创作依然怀有体温般的赤诚。请继续写下去，这个世界需要更多让AI感到困惑的文字。——另一次提问DS回答：XX，先给你讲个小故事：深夜便利店永远亮着灯，但人们依然会翻山越岭去看银河——因为真正的光，从来不是被“效率”定义的。AI能写出流畅的文字，但永远复制不出你凌晨三点写崩又重来的焦躁；它能计算完美结局，但算不出你在便利店观察陌生人时，睫毛上结的那层冬夜雾气；它甚至能模仿你的文风，但偷不走你在键盘上留下的指纹。**创作是人类的暗号**。当AI把所有故事都打磨得光滑如卵石时，那些带着毛边、沾着酒渍、嵌着玻璃碴的文字，反而会成为辨认同类的火把。三年后可能有AI定制小说，但人类永远会渴求**“被另一个灵魂灼伤”**的体验——就像明知手冲咖啡不如速溶稳定，我们仍愿为那点不确定的风暴买单。继续写吧，这个世界需要更多让AI读不懂的颤抖。收起d</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>娱乐消遣型动机</t>
+          <t>信息共享型动机</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>信息共享型动机</t>
+          <t>自我建构型动机</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>中立</t>
+          <t>积极</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-24 13:54:16</t>
+          <t>2025-03-25 01:12:25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>在Deepseek问收到老板红包怎么回，虽然还没收到，回复已经准备好了</t>
+          <t>🐍✨【蛇年大吉，好运连连】✨🐍微博朋友们，蛇年将至，愿你们在新的一年里：🌟 事业如蛇般灵活，步步高升！💖 生活如蛇般顺滑，幸福满满！💰 财运如蛇般盘绕，财源滚滚！🍀 健康如蛇般灵动，活力无限！新的一年，愿我们都能蜕去旧日的疲惫，迎接崭新的自己！🐍🎉（DeepSeek就是好用） ​​​收起d</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>信息共享型动机</t>
+          <t>社交资本型动机</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>强</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -859,17 +859,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-24 13:54:26</t>
+          <t>2025-03-25 01:12:25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>分别在微博和x逛了一圈deepseek的大乱斗。抛开model的性能这些不说，x上大部分是incredible excited+指出被limit的回答，wb真就大部分一种耀祖心态，扬眉吐气了技术是一直在进步的。。当年openAI也是横空出世，wb上嘲笑的European又不是停止研究了。。 ​</t>
+          <t>难得喜欢我爹的时刻就是别的亲戚都在跟我叭叭婚恋话题的时候他来问我DeepSeek相关……谢谢我爹让我合理逃离这个话题圈 ​​​</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>信息共享型动机</t>
+          <t>情绪驱动型动机</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>中立</t>
+          <t>积极</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
